--- a/education_group.xlsx
+++ b/education_group.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>6.849315068493151</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <v>5.263157894736842</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>69.86301369863014</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E3">
-        <v>73.68421052631578</v>
+        <v>70.27027027027027</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="D4">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>17.80821917808219</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4">
-        <v>21.05263157894737</v>
+        <v>17.56756756756757</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -470,11 +470,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>5.47945205479452</v>
+      <c r="E5">
+        <v>5.405405405405405</v>
       </c>
       <c r="F5">
         <v>6</v>

--- a/education_group.xlsx
+++ b/education_group.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6.849315068493151</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>6.756756756756757</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>72.22222222222221</v>
+        <v>69.86301369863014</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>70.27027027027027</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="F3">
         <v>21</v>
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>17.80821917808219</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
       <c r="E4">
-        <v>17.56756756756757</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -470,11 +470,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="D5">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>5.405405405405405</v>
+      <c r="C5">
+        <v>5.47945205479452</v>
       </c>
       <c r="F5">
         <v>6</v>
